--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669917.041169888</v>
+        <v>1665658.775516652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>96.71429518069208</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.22581081021425</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>44.34001494201961</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>204.1778915256167</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>97.41005520222542</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.4920805171603</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>311.956945243815</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>97.45562492339796</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.794769015519207</v>
+        <v>202.3860496764734</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>360.3215909400739</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>220.3908316718764</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.286047385091</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>181.7291448947113</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.16281301712621</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.96838802184498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>3.006892987834131</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>201.5291659007891</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>86.88943397770092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1347.450209037418</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="C2" t="n">
-        <v>978.4876920970066</v>
+        <v>1796.120029428723</v>
       </c>
       <c r="D2" t="n">
-        <v>880.7964848437823</v>
+        <v>1437.854330821972</v>
       </c>
       <c r="E2" t="n">
-        <v>880.7964848437823</v>
+        <v>1052.066078223728</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>641.0801734341205</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>223.9705129195586</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512382</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>319.356318132175</v>
+        <v>151.950669111822</v>
       </c>
       <c r="L2" t="n">
-        <v>868.7856527384575</v>
+        <v>701.3800037181045</v>
       </c>
       <c r="M2" t="n">
-        <v>1051.719798502176</v>
+        <v>1329.332547639727</v>
       </c>
       <c r="N2" t="n">
-        <v>1675.20127354281</v>
+        <v>1952.814022680361</v>
       </c>
       <c r="O2" t="n">
-        <v>1965.954194448895</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263122</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2418.775999924063</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.958036347466</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.958036347466</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.189381077352</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.189381077352</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="Y2" t="n">
-        <v>1734.05004910154</v>
+        <v>2165.082546369134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510377</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>198.5178481733488</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>97.48881342044075</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,13 +4412,13 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099614</v>
+        <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475555</v>
+        <v>811.9794026989974</v>
       </c>
       <c r="M3" t="n">
-        <v>1257.964760382444</v>
+        <v>1449.617702133886</v>
       </c>
       <c r="N3" t="n">
         <v>1645.290452790179</v>
@@ -4454,7 +4454,7 @@
         <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.9246764848472</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="C4" t="n">
-        <v>665.9246764848472</v>
+        <v>945.3859680677054</v>
       </c>
       <c r="D4" t="n">
-        <v>665.9246764848472</v>
+        <v>795.2693286553697</v>
       </c>
       <c r="E4" t="n">
-        <v>665.9246764848472</v>
+        <v>647.3562350729766</v>
       </c>
       <c r="F4" t="n">
-        <v>519.0347289869368</v>
+        <v>500.4662875750662</v>
       </c>
       <c r="G4" t="n">
-        <v>350.4180699278293</v>
+        <v>331.8496285159586</v>
       </c>
       <c r="H4" t="n">
-        <v>196.0761709613024</v>
+        <v>177.5077295494317</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4524,16 +4524,16 @@
         <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>886.7172556283773</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>886.7172556283773</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>886.7172556283773</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.9246764848472</v>
+        <v>1043.779963221469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1273.552214342289</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="C5" t="n">
-        <v>904.5896974018776</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D5" t="n">
-        <v>904.5896974018776</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E5" t="n">
-        <v>904.5896974018776</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M5" t="n">
-        <v>1429.251392960693</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.291386382223</v>
+        <v>2380.390914302321</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.291386382223</v>
+        <v>2380.390914302321</v>
       </c>
       <c r="Y5" t="n">
-        <v>1660.152054406411</v>
+        <v>2380.390914302321</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>591.7266525668458</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.371558019613</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C7" t="n">
-        <v>647.371558019613</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D7" t="n">
-        <v>497.2549186072772</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4767,10 +4767,10 @@
         <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.812601993383</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.0200228498527</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702.091767437537</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="C8" t="n">
-        <v>1333.129250497125</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="D8" t="n">
-        <v>1333.129250497125</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="E8" t="n">
-        <v>947.3409978988811</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F8" t="n">
-        <v>536.3550931092736</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
         <v>172.393890139502</v>
@@ -4810,13 +4810,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>964.3339206741936</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1596.051731657505</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
         <v>1960.554969866447</v>
@@ -4837,19 +4837,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.830939477471</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.830939477471</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.830939477471</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.691607501659</v>
+        <v>1318.690691920173</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>157.1026308627116</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>661.4641707288301</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.009520195935</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>1954.183399498644</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2503.619408251367</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.2125941652866</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="C10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
@@ -4998,16 +4998,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>869.070808176017</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>579.6536381390564</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X10" t="n">
-        <v>579.6536381390564</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.8610589955263</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4434.982778844407</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>4180.29829063852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3890.88112060156</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3662.891569703542</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081858</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990606</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953645</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055628</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7119,22 +7119,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
         <v>1501.108204237296</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7362,7 +7362,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
         <v>1828.279732885522</v>
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,19 +7987,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>125.4513749081902</v>
+        <v>379.1481554188186</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8060,16 +8060,16 @@
         <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.9639383428422</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>193.5888300519615</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M5" t="n">
-        <v>45.38463668251691</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>73.09871788457488</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,16 +8458,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>182.0175083429755</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8476,7 +8476,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>37.16554713105222</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26426,31 +26426,31 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
@@ -26459,7 +26459,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531170.998841526</v>
+        <v>-531170.9988415263</v>
       </c>
       <c r="C6" t="n">
-        <v>252261.0131441899</v>
+        <v>252261.0131441903</v>
       </c>
       <c r="D6" t="n">
-        <v>257167.2601526901</v>
+        <v>257167.2601526902</v>
       </c>
       <c r="E6" t="n">
-        <v>-359063.011798695</v>
+        <v>-359410.391053052</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235327</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778894</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235327</v>
       </c>
       <c r="J6" t="n">
-        <v>244264.3430776088</v>
+        <v>243916.9638232517</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235323</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="M6" t="n">
-        <v>288547.738662176</v>
+        <v>288200.3594078188</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235326</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451604</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>257.9687464399909</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>265.0368983659853</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.504804251687737</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.504804251687688</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>69.83676589640241</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>96.64556280666773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>94.91910049789647</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>251.785343794015</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>222.914886373518</v>
+        <v>23.3236057125637</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>52.59531300586292</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>149.3402690065926</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353684</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28070,13 +28070,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>70.40849842911669</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
         <v>80.64189725347154</v>
@@ -34707,19 +34707,19 @@
         <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178975</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
         <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>293.6898190970559</v>
+        <v>547.3865996076844</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355829</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500206</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108116013</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>436.0633846935185</v>
       </c>
       <c r="M3" t="n">
         <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>391.2380731391262</v>
+        <v>197.6492430871648</v>
       </c>
       <c r="O3" t="n">
         <v>552.2285252131348</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M5" t="n">
-        <v>233.9699021627267</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>211.7144734559829</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>322.7535243442413</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>105.4562740637361</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665658.775516652</v>
+        <v>1667419.305819437</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>50.22581081021425</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359319</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916129</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>62.42508020400775</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>100.0187444053789</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.1778915256167</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>97.41005520222542</v>
+        <v>70.51896598537897</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>130.1083741650747</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>97.45562492339796</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>32.25090972307282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.3860496764734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>89.61524782191508</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>220.3908316718764</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>79.286047385091</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>163.633376506316</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576155</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>3.006892987834131</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.07916359105414</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>54.32649042089666</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>201.5291659007891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427854</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892427854</v>
       </c>
       <c r="I43" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>75.55208621972906</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2165.082546369134</v>
+        <v>1728.56115153835</v>
       </c>
       <c r="C2" t="n">
-        <v>1796.120029428723</v>
+        <v>1359.598634597939</v>
       </c>
       <c r="D2" t="n">
-        <v>1437.854330821972</v>
+        <v>1001.332935991188</v>
       </c>
       <c r="E2" t="n">
-        <v>1052.066078223728</v>
+        <v>1001.332935991188</v>
       </c>
       <c r="F2" t="n">
-        <v>641.0801734341205</v>
+        <v>590.3470312015806</v>
       </c>
       <c r="G2" t="n">
-        <v>223.9705129195586</v>
+        <v>173.2373706870188</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870188</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088564</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>151.9506691118231</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>699.7444981326125</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1327.697042054236</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1951.178517094871</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2494.726756291967</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2570.615999319103</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924063</v>
+        <v>2355.720363354359</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.082546369134</v>
+        <v>2102.02690979943</v>
       </c>
       <c r="V2" t="n">
-        <v>2165.082546369134</v>
+        <v>2102.02690979943</v>
       </c>
       <c r="W2" t="n">
-        <v>2165.082546369134</v>
+        <v>2102.02690979943</v>
       </c>
       <c r="X2" t="n">
-        <v>2165.082546369134</v>
+        <v>1728.56115153835</v>
       </c>
       <c r="Y2" t="n">
-        <v>2165.082546369134</v>
+        <v>1728.56115153835</v>
       </c>
     </row>
     <row r="3">
@@ -4394,64 +4394,64 @@
         <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>484.0255142456717</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>337.4909562725567</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>200.0378524679828</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507474</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496338</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>497.8519368624355</v>
       </c>
       <c r="L3" t="n">
-        <v>811.9794026989974</v>
+        <v>999.7223306000301</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133886</v>
+        <v>1241.641187275393</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1437.313937931687</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>1984.020177892691</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.865745213574</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.779963221469</v>
+        <v>123.9321983127229</v>
       </c>
       <c r="C4" t="n">
-        <v>945.3859680677054</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>795.2693286553697</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>647.3562350729766</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>500.4662875750662</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>331.8496285159586</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5077295494317</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131528</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.034273103914</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856128</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066386</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249446</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351321</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221471</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221469</v>
+        <v>754.3627931845101</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.779963221469</v>
+        <v>526.3732422864928</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.779963221469</v>
+        <v>305.5806631429626</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.791074238199</v>
+        <v>2113.484044838089</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.828557297788</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.562858691037</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E5" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>76.07976811573525</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>479.5468811357807</v>
       </c>
       <c r="L5" t="n">
-        <v>683.1408478992852</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="W5" t="n">
-        <v>2380.390914302321</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="X5" t="n">
-        <v>2380.390914302321</v>
+        <v>2503.6233768139</v>
       </c>
       <c r="Y5" t="n">
-        <v>2380.390914302321</v>
+        <v>2113.484044838089</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5567829601589</v>
+        <v>389.6283296392181</v>
       </c>
       <c r="C7" t="n">
-        <v>497.620600032252</v>
+        <v>220.6921467113112</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199163</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4764,13 +4764,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.058924511005</v>
       </c>
       <c r="X7" t="n">
-        <v>848.2052477903986</v>
+        <v>792.069373612988</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.2052477903986</v>
+        <v>571.2767944694579</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.690691920173</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.690691920173</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.690691920173</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E8" t="n">
         <v>1318.690691920173</v>
@@ -4837,19 +4837,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2225.139236222622</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V8" t="n">
-        <v>1894.076348879051</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W8" t="n">
-        <v>1541.307693608937</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.690691920173</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.690691920173</v>
+        <v>1794.999396863786</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.7878360902098</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -5001,13 +5001,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>763.218430961997</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>535.2288800639797</v>
+        <v>887.349362103689</v>
       </c>
       <c r="Y10" t="n">
-        <v>314.4363009204495</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5357,7 +5357,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>96.85392869224876</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>334.7259677085632</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>187.8360202106528</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6445,70 +6445,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273902</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,7 +6776,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,13 +7262,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270411</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782926</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038312</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122182</v>
+        <v>177.7213185270411</v>
       </c>
       <c r="H43" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038312</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7669,16 +7669,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>416.0091887065172</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.9639383428422</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>65.9884549019938</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.166261194685955</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.2878198583898</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.4449747012147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>15.00954930701843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>84.99383243580195</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194535</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194535</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>70.88187642684011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963195.782401813</v>
+        <v>963195.7824018128</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26349,7 +26349,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.547891889</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008498639</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.980090905</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707388</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707398</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707401</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707388</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707388</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051738</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531170.9988415263</v>
+        <v>-531170.9988415269</v>
       </c>
       <c r="C6" t="n">
-        <v>252261.0131441903</v>
+        <v>252261.0131441908</v>
       </c>
       <c r="D6" t="n">
-        <v>257167.2601526902</v>
+        <v>257167.2601526899</v>
       </c>
       <c r="E6" t="n">
-        <v>-359410.391053052</v>
+        <v>-359097.7497241307</v>
       </c>
       <c r="F6" t="n">
-        <v>416277.9562235327</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="G6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="H6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="I6" t="n">
-        <v>416277.9562235327</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="J6" t="n">
-        <v>243916.9638232517</v>
+        <v>244229.605152173</v>
       </c>
       <c r="K6" t="n">
-        <v>416277.9562235323</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="L6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="M6" t="n">
-        <v>288200.3594078188</v>
+        <v>288513.00073674</v>
       </c>
       <c r="N6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="O6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="P6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524538</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225513</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225513</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915513736</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544873</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>265.0368983659853</v>
+        <v>315.2627091761995</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>92.72138334192044</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687268</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.504804251687688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>69.83676589640241</v>
+        <v>96.72785511324886</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775178</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>129.6100444894</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>205.5352037822504</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24.54451296306553</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>251.785343794015</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>254.2720886135182</v>
       </c>
       <c r="X7" t="n">
-        <v>23.3236057125637</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>293.1185938415655</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>149.3402690065926</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353684</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>62.0762788827212</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.583194696858132e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-7.805184061879151e-13</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718797</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956764</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447403</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.656279568376</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984527</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844695</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451711</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024197</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105534</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193705</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.304152464566</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602336</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031715</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903404</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575038</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682469</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111753</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770782</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777941</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555195</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.653826130551</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102904</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704988</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808504</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489532</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361692</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910981</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820286</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908721</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753087</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942305</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.42869253057796</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753771</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892099</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314787</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646951</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934107</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308986</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983907</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435675</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780524</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776947</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472181</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026213</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139855</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963288</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>363.537151478685</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,13 +32101,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,25 +33973,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,13 +34471,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.61037504168968</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347217</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>553.3271000209994</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107309</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178129</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>549.038625451612</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.738123964101</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.99846259011647</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.7629141515363</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937392</v>
       </c>
       <c r="L3" t="n">
-        <v>436.0633846935185</v>
+        <v>506.939791654136</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>244.3624814902659</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871648</v>
+        <v>197.6492430871655</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131355</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745601</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>231.5645562859968</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055959</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250113</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552513</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101272</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124303</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.539628208461</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110857</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>23.61499856173979</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35026,13 +35026,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164546</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295026</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096319</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
